--- a/tut05/output/0501EE36.xlsx
+++ b/tut05/output/0501EE36.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.285714285714286</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>9.136363636363637</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>9.282608695652174</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>8.804347826086957</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>9.461538461538462</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>8.425000000000001</v>
+        <v>8.43</v>
       </c>
       <c r="H6" t="n">
-        <v>7.697674418604652</v>
+        <v>7.7</v>
       </c>
       <c r="I6" t="n">
-        <v>9.368421052631579</v>
+        <v>9.369999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.285714285714286</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>9.21505376344086</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>9.237410071942445</v>
+        <v>9.24</v>
       </c>
       <c r="E8" t="n">
-        <v>9.12972972972973</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>9.1875</v>
+        <v>9.19</v>
       </c>
       <c r="G8" t="n">
-        <v>9.071969696969697</v>
+        <v>9.07</v>
       </c>
       <c r="H8" t="n">
-        <v>8.879478827361563</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>8.933333333333334</v>
+        <v>8.93</v>
       </c>
     </row>
   </sheetData>
